--- a/en/downloads/data-excel/3.2.1.xlsx
+++ b/en/downloads/data-excel/3.2.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23136" windowHeight="9456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -106,10 +106,6 @@
     <t>Osh city</t>
   </si>
   <si>
-    <t xml:space="preserve">(число умерших детей в возрасте 0-4 года на 1 000 родившихся живыми)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Djalal-Abad oblast  </t>
   </si>
   <si>
@@ -132,6 +128,27 @@
   </si>
   <si>
     <t>3.2.1 Infant mortality rate per 1000 live births (under 5 years of age)</t>
+  </si>
+  <si>
+    <t>(число умерших детей в возрасте 0-4 года на 1 000 родившихся живыми)</t>
+  </si>
+  <si>
+    <t>эркектер</t>
+  </si>
+  <si>
+    <t>мужчины</t>
+  </si>
+  <si>
+    <t> men</t>
+  </si>
+  <si>
+    <t>аялдар</t>
+  </si>
+  <si>
+    <t>женщины</t>
+  </si>
+  <si>
+    <t> women</t>
   </si>
 </sst>
 </file>
@@ -139,11 +156,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +271,28 @@
       <sz val="10"/>
       <name val="Arial Cyr"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,7 +344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -324,10 +363,13 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -365,9 +407,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -398,50 +437,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="21">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="3"/>
     <cellStyle name="Обычный 2" xfId="1"/>
@@ -454,6 +509,9 @@
     <cellStyle name="Обычный 6" xfId="2"/>
     <cellStyle name="Обычный 8" xfId="10"/>
     <cellStyle name="Обычный 9" xfId="11"/>
+    <cellStyle name="Обычный_Браки" xfId="19"/>
+    <cellStyle name="Обычный_КАБАН" xfId="18"/>
+    <cellStyle name="Обычный_Книга2" xfId="20"/>
     <cellStyle name="Пояснение 2" xfId="12"/>
     <cellStyle name="Процентный 2" xfId="13"/>
     <cellStyle name="Процентный 3" xfId="14"/>
@@ -517,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,50 +822,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="16" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>33</v>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -821,7 +877,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -837,571 +893,1648 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>2007</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>2008</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>2009</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="23">
         <v>2010</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>2011</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>2012</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>2013</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>2014</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="23">
         <v>2015</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <v>2016</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="24">
         <v>2017</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <v>2018</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>35.299999999999997</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>31.5</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>29.3</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>26.5</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
+        <v>24.54</v>
+      </c>
+      <c r="I5" s="25">
+        <v>23.4</v>
+      </c>
+      <c r="J5" s="25">
+        <v>23.29</v>
+      </c>
+      <c r="K5" s="25">
+        <v>23.14</v>
+      </c>
+      <c r="L5" s="25">
+        <v>21.5</v>
+      </c>
+      <c r="M5" s="25">
+        <v>19.8</v>
+      </c>
+      <c r="N5" s="33">
+        <v>18.5</v>
+      </c>
+      <c r="O5" s="33">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P5" s="30">
+        <v>17.5</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="45">
+        <v>38.5</v>
+      </c>
+      <c r="E6" s="45">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F6" s="46">
+        <v>32</v>
+      </c>
+      <c r="G6" s="25">
+        <v>29.2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>27.13</v>
+      </c>
+      <c r="I6" s="25">
+        <v>25.94</v>
+      </c>
+      <c r="J6" s="25">
+        <v>25.72</v>
+      </c>
+      <c r="K6" s="25">
+        <v>24.9</v>
+      </c>
+      <c r="L6" s="25">
+        <v>23.2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>21.1</v>
+      </c>
+      <c r="N6" s="33">
+        <v>20.3</v>
+      </c>
+      <c r="O6" s="33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P6" s="30">
+        <v>19.2</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="45">
+        <v>32</v>
+      </c>
+      <c r="E7" s="45">
+        <v>27.6</v>
+      </c>
+      <c r="F7" s="46">
+        <v>26.5</v>
+      </c>
+      <c r="G7" s="25">
+        <v>23.6</v>
+      </c>
+      <c r="H7" s="25">
+        <v>21.81</v>
+      </c>
+      <c r="I7" s="25">
+        <v>20.78</v>
+      </c>
+      <c r="J7" s="25">
+        <v>20.72</v>
+      </c>
+      <c r="K7" s="25">
+        <v>21.2</v>
+      </c>
+      <c r="L7" s="25">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M7" s="25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N7" s="33">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="O7" s="33">
+        <v>15.6</v>
+      </c>
+      <c r="P7" s="30">
+        <v>15.8</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="26">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E8" s="26">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F8" s="26">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G8" s="26">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H8" s="26">
+        <v>28.73</v>
+      </c>
+      <c r="I8" s="26">
+        <v>25.9</v>
+      </c>
+      <c r="J8" s="26">
+        <v>25.75</v>
+      </c>
+      <c r="K8" s="26">
+        <v>23.6</v>
+      </c>
+      <c r="L8" s="26">
+        <v>21.8</v>
+      </c>
+      <c r="M8" s="26">
+        <v>18.8</v>
+      </c>
+      <c r="N8" s="29">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O8" s="29">
+        <v>14.9</v>
+      </c>
+      <c r="P8" s="31">
+        <v>17.7</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="34">
+        <v>45.9</v>
+      </c>
+      <c r="E9" s="34">
+        <v>42.5</v>
+      </c>
+      <c r="F9" s="36">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G9" s="26">
+        <v>38</v>
+      </c>
+      <c r="H9" s="26">
+        <v>30.39</v>
+      </c>
+      <c r="I9" s="26">
+        <v>30.3</v>
+      </c>
+      <c r="J9" s="26">
+        <v>28.79</v>
+      </c>
+      <c r="K9" s="26">
+        <v>26.2</v>
+      </c>
+      <c r="L9" s="26">
+        <v>23.3</v>
+      </c>
+      <c r="M9" s="26">
+        <v>20</v>
+      </c>
+      <c r="N9" s="29">
+        <v>19.5</v>
+      </c>
+      <c r="O9" s="29">
+        <v>16</v>
+      </c>
+      <c r="P9" s="31">
+        <v>18.5</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="34">
+        <v>34.1</v>
+      </c>
+      <c r="E10" s="34">
+        <v>36.5</v>
+      </c>
+      <c r="F10" s="36">
+        <v>30.5</v>
+      </c>
+      <c r="G10" s="26">
+        <v>30.5</v>
+      </c>
+      <c r="H10" s="26">
+        <v>26.96</v>
+      </c>
+      <c r="I10" s="26">
+        <v>21.3</v>
+      </c>
+      <c r="J10" s="26">
+        <v>22.48</v>
+      </c>
+      <c r="K10" s="26">
+        <v>20.8</v>
+      </c>
+      <c r="L10" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M10" s="26">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N10" s="29">
+        <v>17.7</v>
+      </c>
+      <c r="O10" s="29">
+        <v>13.7</v>
+      </c>
+      <c r="P10" s="31">
+        <v>16.8</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="26">
+        <v>30.8</v>
+      </c>
+      <c r="E11" s="26">
+        <v>26.2</v>
+      </c>
+      <c r="F11" s="26">
         <v>24.5</v>
       </c>
-      <c r="I5" s="27">
-        <v>23.4</v>
-      </c>
-      <c r="J5" s="27">
-        <v>23.29</v>
-      </c>
-      <c r="K5" s="27">
-        <v>23.14</v>
-      </c>
-      <c r="L5" s="27">
-        <v>21.46</v>
-      </c>
-      <c r="M5" s="27">
+      <c r="G11" s="26">
+        <v>21.9</v>
+      </c>
+      <c r="H11" s="26">
+        <v>20.65</v>
+      </c>
+      <c r="I11" s="26">
         <v>19.8</v>
       </c>
-      <c r="N5" s="28">
-        <v>18.5</v>
-      </c>
-      <c r="O5" s="28">
+      <c r="J11" s="26">
+        <v>20.95</v>
+      </c>
+      <c r="K11" s="26">
+        <v>21.9</v>
+      </c>
+      <c r="L11" s="26">
+        <v>21.1</v>
+      </c>
+      <c r="M11" s="26">
+        <v>19.8</v>
+      </c>
+      <c r="N11" s="29">
+        <v>17.2</v>
+      </c>
+      <c r="O11" s="29">
+        <v>15.7</v>
+      </c>
+      <c r="P11" s="31">
+        <v>16.2</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="34">
+        <v>34.1</v>
+      </c>
+      <c r="E12" s="34">
+        <v>29.9</v>
+      </c>
+      <c r="F12" s="35">
+        <v>26.4</v>
+      </c>
+      <c r="G12" s="26">
+        <v>23.8</v>
+      </c>
+      <c r="H12" s="26">
+        <v>23.26</v>
+      </c>
+      <c r="I12" s="26">
+        <v>22.4</v>
+      </c>
+      <c r="J12" s="26">
+        <v>21.53</v>
+      </c>
+      <c r="K12" s="26">
+        <v>23.3</v>
+      </c>
+      <c r="L12" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="M12" s="26">
+        <v>21</v>
+      </c>
+      <c r="N12" s="29">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O12" s="29">
+        <v>16.3</v>
+      </c>
+      <c r="P12" s="31">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="34">
+        <v>27.2</v>
+      </c>
+      <c r="E13" s="34">
+        <v>22.2</v>
+      </c>
+      <c r="F13" s="35">
+        <v>22.4</v>
+      </c>
+      <c r="G13" s="26">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H13" s="26">
+        <v>17.91</v>
+      </c>
+      <c r="I13" s="26">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J13" s="26">
+        <v>20.34</v>
+      </c>
+      <c r="K13" s="26">
+        <v>20.3</v>
+      </c>
+      <c r="L13" s="26">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M13" s="26">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N13" s="29">
+        <v>15.4</v>
+      </c>
+      <c r="O13" s="29">
+        <v>15</v>
+      </c>
+      <c r="P13" s="31">
+        <v>15.7</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="26">
+        <v>28.9</v>
+      </c>
+      <c r="E14" s="26">
+        <v>28</v>
+      </c>
+      <c r="F14" s="26">
+        <v>24.9</v>
+      </c>
+      <c r="G14" s="26">
+        <v>22.3</v>
+      </c>
+      <c r="H14" s="26">
+        <v>24.81</v>
+      </c>
+      <c r="I14" s="26">
+        <v>24</v>
+      </c>
+      <c r="J14" s="26">
+        <v>19.47</v>
+      </c>
+      <c r="K14" s="26">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L14" s="26">
+        <v>18.8</v>
+      </c>
+      <c r="M14" s="26">
+        <v>17.8</v>
+      </c>
+      <c r="N14" s="29">
+        <v>15.2</v>
+      </c>
+      <c r="O14" s="29">
+        <v>14.3</v>
+      </c>
+      <c r="P14" s="31">
+        <v>18.3</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="34">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E15" s="34">
+        <v>33.1</v>
+      </c>
+      <c r="F15" s="35">
+        <v>25.5</v>
+      </c>
+      <c r="G15" s="26">
+        <v>26.2</v>
+      </c>
+      <c r="H15" s="26">
+        <v>29.68</v>
+      </c>
+      <c r="I15" s="26">
+        <v>25.2</v>
+      </c>
+      <c r="J15" s="26">
+        <v>21.37</v>
+      </c>
+      <c r="K15" s="26">
+        <v>20.6</v>
+      </c>
+      <c r="L15" s="26">
+        <v>20.7</v>
+      </c>
+      <c r="M15" s="26">
+        <v>12.8</v>
+      </c>
+      <c r="N15" s="29">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O15" s="29">
+        <v>16.3</v>
+      </c>
+      <c r="P15" s="31">
+        <v>20.8</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="34">
+        <v>25</v>
+      </c>
+      <c r="E16" s="34">
+        <v>22.8</v>
+      </c>
+      <c r="F16" s="35">
+        <v>24.2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>18.3</v>
+      </c>
+      <c r="H16" s="26">
+        <v>19.8</v>
+      </c>
+      <c r="I16" s="26">
+        <v>22.8</v>
+      </c>
+      <c r="J16" s="26">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="K16" s="26">
+        <v>13.1</v>
+      </c>
+      <c r="L16" s="26">
+        <v>16.7</v>
+      </c>
+      <c r="M16" s="26">
+        <v>16.8</v>
+      </c>
+      <c r="N16" s="29">
+        <v>12</v>
+      </c>
+      <c r="O16" s="29">
+        <v>12.3</v>
+      </c>
+      <c r="P16" s="31">
+        <v>15.6</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26">
+        <v>33.9</v>
+      </c>
+      <c r="E17" s="26">
+        <v>30.1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>28</v>
+      </c>
+      <c r="G17" s="26">
+        <v>25</v>
+      </c>
+      <c r="H17" s="26">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="I17" s="26">
+        <v>21.7</v>
+      </c>
+      <c r="J17" s="26">
+        <v>20.2</v>
+      </c>
+      <c r="K17" s="26">
+        <v>22.6</v>
+      </c>
+      <c r="L17" s="26">
+        <v>16.8</v>
+      </c>
+      <c r="M17" s="26">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N17" s="29">
+        <v>18.2</v>
+      </c>
+      <c r="O17" s="29">
+        <v>15.1</v>
+      </c>
+      <c r="P17" s="31">
+        <v>12.5</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="34">
+        <v>35.6</v>
+      </c>
+      <c r="E18" s="34">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F18" s="35">
+        <v>32.5</v>
+      </c>
+      <c r="G18" s="26">
+        <v>27.3</v>
+      </c>
+      <c r="H18" s="26">
+        <v>24.82</v>
+      </c>
+      <c r="I18" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="J18" s="26">
+        <v>23.06</v>
+      </c>
+      <c r="K18" s="26">
+        <v>22.2</v>
+      </c>
+      <c r="L18" s="26">
+        <v>21.2</v>
+      </c>
+      <c r="M18" s="26">
+        <v>20.2</v>
+      </c>
+      <c r="N18" s="29">
+        <v>19.8</v>
+      </c>
+      <c r="O18" s="29">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P18" s="31">
+        <v>13.2</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="34">
+        <v>32</v>
+      </c>
+      <c r="E19" s="34">
+        <v>27.8</v>
+      </c>
+      <c r="F19" s="35">
+        <v>23.2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>22.3</v>
+      </c>
+      <c r="H19" s="26">
+        <v>15.04</v>
+      </c>
+      <c r="I19" s="26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J19" s="26">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="K19" s="26">
+        <v>23</v>
+      </c>
+      <c r="L19" s="26">
+        <v>12.1</v>
+      </c>
+      <c r="M19" s="26">
+        <v>15.5</v>
+      </c>
+      <c r="N19" s="29">
+        <v>16.5</v>
+      </c>
+      <c r="O19" s="29">
+        <v>13.5</v>
+      </c>
+      <c r="P19" s="31">
+        <v>11.9</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="26">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E20" s="26">
+        <v>29.9</v>
+      </c>
+      <c r="F20" s="26">
+        <v>26.1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>24.1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>21.14</v>
+      </c>
+      <c r="I20" s="26">
+        <v>19</v>
+      </c>
+      <c r="J20" s="26">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="K20" s="26">
+        <v>15</v>
+      </c>
+      <c r="L20" s="26">
+        <v>14.3</v>
+      </c>
+      <c r="M20" s="26">
+        <v>12.2</v>
+      </c>
+      <c r="N20" s="29">
+        <v>11.7</v>
+      </c>
+      <c r="O20" s="29">
+        <v>11</v>
+      </c>
+      <c r="P20" s="31">
+        <v>10.6</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="34">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E21" s="37">
+        <v>32.4</v>
+      </c>
+      <c r="F21" s="35">
+        <v>28.5</v>
+      </c>
+      <c r="G21" s="26">
+        <v>28.2</v>
+      </c>
+      <c r="H21" s="26">
+        <v>24.44</v>
+      </c>
+      <c r="I21" s="26">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J21" s="26">
+        <v>18.36</v>
+      </c>
+      <c r="K21" s="26">
+        <v>16.5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>15.2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>13.2</v>
+      </c>
+      <c r="N21" s="29">
+        <v>12.7</v>
+      </c>
+      <c r="O21" s="29">
+        <v>12.7</v>
+      </c>
+      <c r="P21" s="31">
+        <v>12.5</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="34">
+        <v>30.4</v>
+      </c>
+      <c r="E22" s="37">
+        <v>27.3</v>
+      </c>
+      <c r="F22" s="35">
+        <v>23.5</v>
+      </c>
+      <c r="G22" s="26">
+        <v>20</v>
+      </c>
+      <c r="H22" s="26">
+        <v>17.63</v>
+      </c>
+      <c r="I22" s="26">
+        <v>17.5</v>
+      </c>
+      <c r="J22" s="26">
+        <v>15.92</v>
+      </c>
+      <c r="K22" s="26">
+        <v>13.4</v>
+      </c>
+      <c r="L22" s="26">
+        <v>13.3</v>
+      </c>
+      <c r="M22" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="N22" s="29">
+        <v>10.8</v>
+      </c>
+      <c r="O22" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P22" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="26">
+        <v>43.8</v>
+      </c>
+      <c r="E23" s="26">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F23" s="26">
+        <v>39</v>
+      </c>
+      <c r="G23" s="26">
+        <v>29.5</v>
+      </c>
+      <c r="H23" s="26">
+        <v>27.69</v>
+      </c>
+      <c r="I23" s="26">
+        <v>22.9</v>
+      </c>
+      <c r="J23" s="26">
+        <v>26.52</v>
+      </c>
+      <c r="K23" s="26">
+        <v>24.1</v>
+      </c>
+      <c r="L23" s="26">
+        <v>17.8</v>
+      </c>
+      <c r="M23" s="26">
+        <v>19.7</v>
+      </c>
+      <c r="N23" s="29">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O23" s="29">
+        <v>22.8</v>
+      </c>
+      <c r="P23" s="31">
+        <v>20.6</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="34">
+        <v>46.8</v>
+      </c>
+      <c r="E24" s="34">
+        <v>42</v>
+      </c>
+      <c r="F24" s="35">
+        <v>45</v>
+      </c>
+      <c r="G24" s="26">
+        <v>32</v>
+      </c>
+      <c r="H24" s="26">
+        <v>29.6</v>
+      </c>
+      <c r="I24" s="26">
+        <v>26.8</v>
+      </c>
+      <c r="J24" s="26">
+        <v>32.1</v>
+      </c>
+      <c r="K24" s="26">
+        <v>27.8</v>
+      </c>
+      <c r="L24" s="26">
+        <v>23.3</v>
+      </c>
+      <c r="M24" s="26">
+        <v>20</v>
+      </c>
+      <c r="N24" s="29">
+        <v>17.5</v>
+      </c>
+      <c r="O24" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="P24" s="31">
+        <v>21.6</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="34">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E25" s="34">
+        <v>34.5</v>
+      </c>
+      <c r="F25" s="35">
+        <v>32.5</v>
+      </c>
+      <c r="G25" s="26">
+        <v>27</v>
+      </c>
+      <c r="H25" s="26">
+        <v>25.56</v>
+      </c>
+      <c r="I25" s="26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J25" s="26">
+        <v>20.73</v>
+      </c>
+      <c r="K25" s="26">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L25" s="26">
+        <v>11.8</v>
+      </c>
+      <c r="M25" s="26">
+        <v>19.3</v>
+      </c>
+      <c r="N25" s="29">
+        <v>16.7</v>
+      </c>
+      <c r="O25" s="29">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P25" s="31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Q25" s="31">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="26">
+        <v>31.6</v>
+      </c>
+      <c r="E26" s="26">
+        <v>27.4</v>
+      </c>
+      <c r="F26" s="26">
+        <v>25.1</v>
+      </c>
+      <c r="G26" s="26">
+        <v>24.2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>22.6</v>
+      </c>
+      <c r="I26" s="26">
+        <v>20.8</v>
+      </c>
+      <c r="J26" s="26">
+        <v>21.22</v>
+      </c>
+      <c r="K26" s="26">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L26" s="26">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M26" s="26">
+        <v>16.5</v>
+      </c>
+      <c r="N26" s="29">
+        <v>12.9</v>
+      </c>
+      <c r="O26" s="29">
+        <v>12.7</v>
+      </c>
+      <c r="P26" s="31">
+        <v>13.1</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="38">
+        <v>33.9</v>
+      </c>
+      <c r="E27" s="38">
+        <v>32.9</v>
+      </c>
+      <c r="F27" s="35">
+        <v>27.7</v>
+      </c>
+      <c r="G27" s="26">
+        <v>26.7</v>
+      </c>
+      <c r="H27" s="26">
+        <v>23.06</v>
+      </c>
+      <c r="I27" s="26">
+        <v>23.2</v>
+      </c>
+      <c r="J27" s="26">
+        <v>23.07</v>
+      </c>
+      <c r="K27" s="26">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L27" s="26">
+        <v>19.7</v>
+      </c>
+      <c r="M27" s="26">
+        <v>16.7</v>
+      </c>
+      <c r="N27" s="29">
+        <v>13.2</v>
+      </c>
+      <c r="O27" s="29">
+        <v>13.7</v>
+      </c>
+      <c r="P27" s="31">
+        <v>14.2</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="38">
+        <v>29.2</v>
+      </c>
+      <c r="E28" s="38">
+        <v>21.6</v>
+      </c>
+      <c r="F28" s="35">
+        <v>22.4</v>
+      </c>
+      <c r="G28" s="26">
+        <v>21.6</v>
+      </c>
+      <c r="H28" s="26">
+        <v>22.13</v>
+      </c>
+      <c r="I28" s="26">
+        <v>18.3</v>
+      </c>
+      <c r="J28" s="26">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="K28" s="26">
         <v>17.600000000000001</v>
       </c>
-      <c r="P5" s="35">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="29">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E6" s="29">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="F6" s="29">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="G6" s="29">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="H6" s="29">
-        <v>28.7</v>
-      </c>
-      <c r="I6" s="29">
-        <v>25.9</v>
-      </c>
-      <c r="J6" s="29">
-        <v>25.75</v>
-      </c>
-      <c r="K6" s="29">
-        <v>23.61</v>
-      </c>
-      <c r="L6" s="29">
-        <v>21.75</v>
-      </c>
-      <c r="M6" s="29">
-        <v>18.8</v>
-      </c>
-      <c r="N6" s="30">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="O6" s="30">
-        <v>14.9</v>
-      </c>
-      <c r="P6" s="36">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="L28" s="26">
+        <v>14.2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>16.2</v>
+      </c>
+      <c r="N28" s="29">
+        <v>12.7</v>
+      </c>
+      <c r="O28" s="29">
+        <v>11.7</v>
+      </c>
+      <c r="P28" s="31">
+        <v>11.8</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="26">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E29" s="26">
+        <v>34.6</v>
+      </c>
+      <c r="F29" s="26">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G29" s="26">
+        <v>28.2</v>
+      </c>
+      <c r="H29" s="26">
+        <v>26.24</v>
+      </c>
+      <c r="I29" s="26">
+        <v>24.8</v>
+      </c>
+      <c r="J29" s="26">
+        <v>25.69</v>
+      </c>
+      <c r="K29" s="26">
+        <v>28.6</v>
+      </c>
+      <c r="L29" s="26">
+        <v>26.6</v>
+      </c>
+      <c r="M29" s="26">
+        <v>25.7</v>
+      </c>
+      <c r="N29" s="29">
+        <v>26.4</v>
+      </c>
+      <c r="O29" s="29">
+        <v>25</v>
+      </c>
+      <c r="P29" s="31">
+        <v>21.7</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="39">
+        <v>38</v>
+      </c>
+      <c r="E30" s="39">
+        <v>37.9</v>
+      </c>
+      <c r="F30" s="35">
+        <v>34.9</v>
+      </c>
+      <c r="G30" s="26">
+        <v>29.1</v>
+      </c>
+      <c r="H30" s="26">
+        <v>28.18</v>
+      </c>
+      <c r="I30" s="26">
+        <v>25.6</v>
+      </c>
+      <c r="J30" s="26">
+        <v>29.41</v>
+      </c>
+      <c r="K30" s="26">
+        <v>30.4</v>
+      </c>
+      <c r="L30" s="26">
+        <v>27.6</v>
+      </c>
+      <c r="M30" s="26">
+        <v>28.5</v>
+      </c>
+      <c r="N30" s="29">
+        <v>29.6</v>
+      </c>
+      <c r="O30" s="29">
+        <v>27.2</v>
+      </c>
+      <c r="P30" s="31">
+        <v>23.3</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="39">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E31" s="39">
         <v>31</v>
       </c>
-      <c r="D7" s="29">
-        <v>30.8</v>
-      </c>
-      <c r="E7" s="29">
-        <v>26.2</v>
-      </c>
-      <c r="F7" s="29">
-        <v>24.5</v>
-      </c>
-      <c r="G7" s="29">
-        <v>21.87</v>
-      </c>
-      <c r="H7" s="29">
-        <v>20.7</v>
-      </c>
-      <c r="I7" s="29">
-        <v>19.8</v>
-      </c>
-      <c r="J7" s="29">
-        <v>20.95</v>
-      </c>
-      <c r="K7" s="29">
-        <v>21.88</v>
-      </c>
-      <c r="L7" s="29">
-        <v>21.1</v>
-      </c>
-      <c r="M7" s="29">
-        <v>19.75</v>
-      </c>
-      <c r="N7" s="30">
-        <v>17.2</v>
-      </c>
-      <c r="O7" s="30">
-        <v>15.7</v>
-      </c>
-      <c r="P7" s="36">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="29">
-        <v>28.9</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="F31" s="35">
+        <v>29.7</v>
+      </c>
+      <c r="G31" s="26">
+        <v>27.4</v>
+      </c>
+      <c r="H31" s="26">
+        <v>24.19</v>
+      </c>
+      <c r="I31" s="26">
+        <v>24</v>
+      </c>
+      <c r="J31" s="26">
+        <v>21.79</v>
+      </c>
+      <c r="K31" s="26">
+        <v>26.7</v>
+      </c>
+      <c r="L31" s="26">
+        <v>25.6</v>
+      </c>
+      <c r="M31" s="26">
+        <v>22.8</v>
+      </c>
+      <c r="N31" s="29">
+        <v>23</v>
+      </c>
+      <c r="O31" s="29">
+        <v>22.6</v>
+      </c>
+      <c r="P31" s="31">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="29">
-        <v>24.9</v>
-      </c>
-      <c r="G8" s="29">
-        <v>22.32</v>
-      </c>
-      <c r="H8" s="29">
-        <v>24.8</v>
-      </c>
-      <c r="I8" s="29">
-        <v>24</v>
-      </c>
-      <c r="J8" s="29">
-        <v>19.47</v>
-      </c>
-      <c r="K8" s="29">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="L8" s="29">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="M8" s="29">
-        <v>17.8</v>
-      </c>
-      <c r="N8" s="30">
-        <v>15.2</v>
-      </c>
-      <c r="O8" s="30">
-        <v>14.3</v>
-      </c>
-      <c r="P8" s="36">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="29">
-        <v>33.9</v>
-      </c>
-      <c r="E9" s="29">
-        <v>30.1</v>
-      </c>
-      <c r="F9" s="29">
-        <v>28</v>
-      </c>
-      <c r="G9" s="29">
-        <v>25</v>
-      </c>
-      <c r="H9" s="29">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="I9" s="29">
-        <v>21.7</v>
-      </c>
-      <c r="J9" s="29">
-        <v>20.2</v>
-      </c>
-      <c r="K9" s="29">
-        <v>22.58</v>
-      </c>
-      <c r="L9" s="29">
-        <v>16.77</v>
-      </c>
-      <c r="M9" s="29">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="N9" s="30">
-        <v>18.2</v>
-      </c>
-      <c r="O9" s="30">
-        <v>15.1</v>
-      </c>
-      <c r="P9" s="36">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="29">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E10" s="29">
-        <v>29.9</v>
-      </c>
-      <c r="F10" s="29">
-        <v>26.1</v>
-      </c>
-      <c r="G10" s="29">
-        <v>24.14</v>
-      </c>
-      <c r="H10" s="29">
-        <v>21.1</v>
-      </c>
-      <c r="I10" s="29">
-        <v>19</v>
-      </c>
-      <c r="J10" s="29">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="K10" s="29">
-        <v>14.96</v>
-      </c>
-      <c r="L10" s="29">
-        <v>14.31</v>
-      </c>
-      <c r="M10" s="29">
-        <v>12.2</v>
-      </c>
-      <c r="N10" s="30">
-        <v>11.7</v>
-      </c>
-      <c r="O10" s="34">
-        <v>11</v>
-      </c>
-      <c r="P10" s="36">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="29">
-        <v>43.8</v>
-      </c>
-      <c r="E11" s="29">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="C32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="26">
+        <v>63.7</v>
+      </c>
+      <c r="E32" s="26">
+        <v>52.9</v>
+      </c>
+      <c r="F32" s="26">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G32" s="26">
+        <v>52.9</v>
+      </c>
+      <c r="H32" s="26">
+        <v>58.25</v>
+      </c>
+      <c r="I32" s="26">
+        <v>63.4</v>
+      </c>
+      <c r="J32" s="26">
+        <v>65.59</v>
+      </c>
+      <c r="K32" s="26">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="L32" s="26">
+        <v>70.3</v>
+      </c>
+      <c r="M32" s="26">
+        <v>60</v>
+      </c>
+      <c r="N32" s="29">
+        <v>53.1</v>
+      </c>
+      <c r="O32" s="29">
         <v>39</v>
       </c>
-      <c r="G11" s="29">
-        <v>29.52</v>
-      </c>
-      <c r="H11" s="29">
-        <v>27.7</v>
-      </c>
-      <c r="I11" s="29">
-        <v>22.9</v>
-      </c>
-      <c r="J11" s="29">
-        <v>26.52</v>
-      </c>
-      <c r="K11" s="29">
-        <v>24.14</v>
-      </c>
-      <c r="L11" s="29">
-        <v>17.77</v>
-      </c>
-      <c r="M11" s="29">
-        <v>19.7</v>
-      </c>
-      <c r="N11" s="30">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="O11" s="30">
-        <v>22.8</v>
-      </c>
-      <c r="P11" s="36">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="29">
-        <v>31.6</v>
-      </c>
-      <c r="E12" s="29">
-        <v>27.4</v>
-      </c>
-      <c r="F12" s="29">
-        <v>25.1</v>
-      </c>
-      <c r="G12" s="29">
-        <v>24.2</v>
-      </c>
-      <c r="H12" s="29">
-        <v>22.6</v>
-      </c>
-      <c r="I12" s="29">
-        <v>20.8</v>
-      </c>
-      <c r="J12" s="29">
-        <v>21.22</v>
-      </c>
-      <c r="K12" s="29">
-        <v>18.55</v>
-      </c>
-      <c r="L12" s="29">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="M12" s="29">
-        <v>16.45</v>
-      </c>
-      <c r="N12" s="30">
-        <v>12.9</v>
-      </c>
-      <c r="O12" s="30">
-        <v>12.7</v>
-      </c>
-      <c r="P12" s="36">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="29">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E13" s="29">
-        <v>34.6</v>
-      </c>
-      <c r="F13" s="29">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G13" s="29">
-        <v>28.2</v>
-      </c>
-      <c r="H13" s="29">
-        <v>26.2</v>
-      </c>
-      <c r="I13" s="29">
-        <v>24.8</v>
-      </c>
-      <c r="J13" s="29">
-        <v>25.69</v>
-      </c>
-      <c r="K13" s="29">
-        <v>28.61</v>
-      </c>
-      <c r="L13" s="29">
-        <v>26.6</v>
-      </c>
-      <c r="M13" s="29">
-        <v>25.7</v>
-      </c>
-      <c r="N13" s="30">
-        <v>26.4</v>
-      </c>
-      <c r="O13" s="30">
-        <v>25.1</v>
-      </c>
-      <c r="P13" s="36">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1">
-      <c r="A14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="31">
-        <v>63.7</v>
-      </c>
-      <c r="E14" s="31">
-        <v>52.9</v>
-      </c>
-      <c r="F14" s="31">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="G14" s="31">
-        <v>52.94</v>
-      </c>
-      <c r="H14" s="31">
-        <v>58.3</v>
-      </c>
-      <c r="I14" s="31">
-        <v>63.4</v>
-      </c>
-      <c r="J14" s="31">
-        <v>65.59</v>
-      </c>
-      <c r="K14" s="31">
-        <v>72.349999999999994</v>
-      </c>
-      <c r="L14" s="31">
-        <v>70.260000000000005</v>
-      </c>
-      <c r="M14" s="31">
-        <v>60</v>
-      </c>
-      <c r="N14" s="32">
-        <v>53.1</v>
-      </c>
-      <c r="O14" s="33">
+      <c r="P32" s="31">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="37">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="B33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="40">
+        <v>66.2</v>
+      </c>
+      <c r="E33" s="40">
+        <v>57.9</v>
+      </c>
+      <c r="F33" s="41">
+        <v>70.2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>56.7</v>
+      </c>
+      <c r="H33" s="26">
+        <v>62.19</v>
+      </c>
+      <c r="I33" s="26">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J33" s="26">
+        <v>74.36</v>
+      </c>
+      <c r="K33" s="26">
+        <v>74.5</v>
+      </c>
+      <c r="L33" s="26">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="M33" s="26">
+        <v>67</v>
+      </c>
+      <c r="N33" s="29">
+        <v>60.4</v>
+      </c>
+      <c r="O33" s="29">
+        <v>43.6</v>
+      </c>
+      <c r="P33" s="31">
+        <v>42.8</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="43">
+        <v>61.3</v>
+      </c>
+      <c r="E34" s="43">
+        <v>47.6</v>
+      </c>
+      <c r="F34" s="44">
+        <v>58.1</v>
+      </c>
+      <c r="G34" s="27">
+        <v>49</v>
+      </c>
+      <c r="H34" s="27">
+        <v>54.05</v>
+      </c>
+      <c r="I34" s="27">
+        <v>52.3</v>
+      </c>
+      <c r="J34" s="27">
+        <v>55.65</v>
+      </c>
+      <c r="K34" s="27">
+        <v>70</v>
+      </c>
+      <c r="L34" s="27">
+        <v>70.2</v>
+      </c>
+      <c r="M34" s="27">
+        <v>52.3</v>
+      </c>
+      <c r="N34" s="28">
+        <v>44.9</v>
+      </c>
+      <c r="O34" s="28">
+        <v>34.1</v>
+      </c>
+      <c r="P34" s="32">
+        <v>31.3</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>34.200000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/en/downloads/data-excel/3.2.1.xlsx
+++ b/en/downloads/data-excel/3.2.1.xlsx
@@ -302,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,6 +343,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -369,7 +378,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -494,6 +503,9 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -822,9 +834,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -833,7 +847,7 @@
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:18" s="14" customFormat="1" ht="44.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -855,7 +869,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="31.5" customHeight="1">
+    <row r="2" spans="1:18" s="14" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>34</v>
       </c>
@@ -877,7 +891,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -893,7 +907,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q4" s="24">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1015,11 @@
       <c r="Q5" s="30">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="30">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1051,8 +1071,11 @@
       <c r="Q6" s="30">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="30">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1104,8 +1127,11 @@
       <c r="Q7" s="30">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="30">
+        <v>16.079999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1157,8 +1183,11 @@
       <c r="Q8" s="31">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="31">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1210,8 +1239,11 @@
       <c r="Q9" s="31">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="31">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1263,8 +1295,11 @@
       <c r="Q10" s="31">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="31">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1316,8 +1351,11 @@
       <c r="Q11" s="31">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="31">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1369,8 +1407,11 @@
       <c r="Q12" s="31">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="31">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1422,8 +1463,11 @@
       <c r="Q13" s="31">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="31">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1475,8 +1519,11 @@
       <c r="Q14" s="31">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="31">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1528,8 +1575,11 @@
       <c r="Q15" s="31">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="31">
+        <v>29.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1581,8 +1631,11 @@
       <c r="Q16" s="31">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="31">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1634,8 +1687,11 @@
       <c r="Q17" s="31">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="31">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1687,8 +1743,11 @@
       <c r="Q18" s="31">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="31">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1740,8 +1799,11 @@
       <c r="Q19" s="31">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="31">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -1793,8 +1855,11 @@
       <c r="Q20" s="31">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="31">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1846,8 +1911,11 @@
       <c r="Q21" s="31">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="31">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1899,8 +1967,11 @@
       <c r="Q22" s="31">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="31">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
@@ -1952,8 +2023,11 @@
       <c r="Q23" s="31">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="31">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2005,8 +2079,11 @@
       <c r="Q24" s="31">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="31">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -2058,8 +2135,11 @@
       <c r="Q25" s="31">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="31">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2111,8 +2191,11 @@
       <c r="Q26" s="31">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="31">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2164,8 +2247,11 @@
       <c r="Q27" s="31">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="31">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2217,8 +2303,11 @@
       <c r="Q28" s="31">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="31">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -2270,8 +2359,11 @@
       <c r="Q29" s="31">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="31">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2323,8 +2415,11 @@
       <c r="Q30" s="31">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="31">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2376,8 +2471,11 @@
       <c r="Q31" s="31">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="31">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -2429,8 +2527,11 @@
       <c r="Q32" s="31">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="31">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2482,8 +2583,11 @@
       <c r="Q33" s="31">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1">
+      <c r="R33" s="31">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2534,6 +2638,9 @@
       </c>
       <c r="Q34" s="32">
         <v>34.200000000000003</v>
+      </c>
+      <c r="R34" s="47">
+        <v>25.64</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/3.2.1.xlsx
+++ b/en/downloads/data-excel/3.2.1.xlsx
@@ -834,10 +834,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,7 +847,7 @@
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="14" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:19" s="14" customFormat="1" ht="44.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" ht="31.5" customHeight="1">
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>34</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -907,7 +907,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -962,8 +962,11 @@
       <c r="R4" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1018,8 +1021,11 @@
       <c r="R5" s="30">
         <v>17.920000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="30">
+        <v>16.696653653506477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1074,8 +1080,11 @@
       <c r="R6" s="30">
         <v>19.649999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="30">
+        <v>17.71894995601205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1130,8 +1139,11 @@
       <c r="R7" s="30">
         <v>16.079999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="30">
+        <v>15.612684844888001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1186,8 +1198,11 @@
       <c r="R8" s="31">
         <v>16.86</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="31">
+        <v>15.66812062518596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1242,8 +1257,11 @@
       <c r="R9" s="31">
         <v>17.260000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="31">
+        <v>16.652881900156387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1298,8 +1316,11 @@
       <c r="R10" s="31">
         <v>16.440000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="31">
+        <v>14.667361954014684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1354,8 +1375,11 @@
       <c r="R11" s="31">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="31">
+        <v>16.525244796823369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1410,8 +1434,11 @@
       <c r="R12" s="31">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="31">
+        <v>19.119250309028729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1466,8 +1493,11 @@
       <c r="R13" s="31">
         <v>16.63</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="31">
+        <v>13.749215987119079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1522,8 +1552,11 @@
       <c r="R14" s="31">
         <v>26.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="31">
+        <v>14.263200620072119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1578,8 +1611,11 @@
       <c r="R15" s="31">
         <v>29.03</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="31">
+        <v>16.214093517712168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1634,8 +1670,11 @@
       <c r="R16" s="31">
         <v>24.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="31">
+        <v>12.189607205170377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1690,8 +1729,11 @@
       <c r="R17" s="31">
         <v>13.87</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="31">
+        <v>14.097780631317802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1746,8 +1788,11 @@
       <c r="R18" s="31">
         <v>13.87</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="31">
+        <v>16.597474200848456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1802,8 +1847,11 @@
       <c r="R19" s="31">
         <v>11.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="31">
+        <v>11.56800988291025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -1858,8 +1906,11 @@
       <c r="R20" s="31">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="31">
+        <v>11.191263248519153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1914,8 +1965,11 @@
       <c r="R21" s="31">
         <v>12.72</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="31">
+        <v>11.361761672735106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1970,8 +2024,11 @@
       <c r="R22" s="31">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="31">
+        <v>11.015850216858553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
@@ -2026,8 +2083,11 @@
       <c r="R23" s="31">
         <v>24.53</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="31">
+        <v>15.623145704601036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2082,8 +2142,11 @@
       <c r="R24" s="31">
         <v>31.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="31">
+        <v>18.344423887154832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2201,11 @@
       <c r="R25" s="31">
         <v>17.850000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="31">
+        <v>12.847349120106124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2194,8 +2260,11 @@
       <c r="R26" s="31">
         <v>13.54</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="31">
+        <v>13.798472231512836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2250,8 +2319,11 @@
       <c r="R27" s="31">
         <v>13.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="31">
+        <v>15.128863237337196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2306,8 +2378,11 @@
       <c r="R28" s="31">
         <v>13.52</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="31">
+        <v>12.394222749619622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -2362,8 +2437,11 @@
       <c r="R29" s="31">
         <v>17.84</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="31">
+        <v>21.380402934584232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2418,8 +2496,11 @@
       <c r="R30" s="31">
         <v>20.85</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="31">
+        <v>19.968977602899539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2555,11 @@
       <c r="R31" s="31">
         <v>14.59</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="31">
+        <v>22.891947678227961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
@@ -2530,8 +2614,11 @@
       <c r="R32" s="31">
         <v>30.69</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="31">
+        <v>28.912046224512313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2586,8 +2673,11 @@
       <c r="R33" s="31">
         <v>35.450000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1">
+      <c r="S33" s="31">
+        <v>31.246721692820181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2641,6 +2731,9 @@
       </c>
       <c r="R34" s="47">
         <v>25.64</v>
+      </c>
+      <c r="S34" s="47">
+        <v>26.427454495987305</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/3.2.1.xlsx
+++ b/en/downloads/data-excel/3.2.1.xlsx
@@ -160,7 +160,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,10 +288,17 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,7 +385,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -500,12 +507,20 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -834,20 +849,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="42.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -869,7 +881,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="31.5" customHeight="1">
+    <row r="2" spans="1:20" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>34</v>
       </c>
@@ -891,7 +903,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -907,7 +919,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -965,8 +977,11 @@
       <c r="S4" s="24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1024,185 +1039,197 @@
       <c r="S5" s="30">
         <v>16.696653653506477</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="7" t="s">
+      <c r="T5" s="30">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="48" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="46">
         <v>38.5</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>35.200000000000003</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>32</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="26">
         <v>29.2</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>27.13</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <v>25.94</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <v>25.72</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <v>24.9</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <v>23.2</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <v>21.1</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="29">
         <v>20.3</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="31">
         <v>19.2</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="31">
         <v>17.8</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="31">
         <v>19.649999999999999</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="31">
         <v>17.71894995601205</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="7" t="s">
+      <c r="T6" s="31">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="48" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="46">
         <v>32</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="46">
         <v>27.6</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>26.5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="26">
         <v>23.6</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>21.81</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <v>20.78</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <v>20.72</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <v>21.2</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="26">
         <v>19.600000000000001</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="26">
         <v>18.399999999999999</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="29">
         <v>16.600000000000001</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="29">
         <v>15.6</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="31">
         <v>15.8</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="31">
         <v>15.6</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="31">
         <v>16.079999999999998</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="31">
         <v>15.612684844888001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="9" t="s">
+      <c r="T7" s="31">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="50" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>40.299999999999997</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>39.700000000000003</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>33.700000000000003</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>34.299999999999997</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>28.73</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>25.9</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>25.75</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>23.6</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>21.8</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>18.8</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="33">
         <v>18.600000000000001</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="33">
         <v>14.9</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="30">
         <v>17.7</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <v>16.7</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="30">
         <v>16.86</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="30">
         <v>15.66812062518596</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="30">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1260,8 +1287,11 @@
       <c r="S9" s="31">
         <v>16.652881900156387</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="31">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1319,67 +1349,73 @@
       <c r="S10" s="31">
         <v>14.667361954014684</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="9" t="s">
+      <c r="T10" s="31">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="50" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>30.8</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>26.2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>24.5</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>21.9</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>20.65</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>19.8</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>20.95</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>21.9</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>21.1</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>19.8</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="33">
         <v>17.2</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="33">
         <v>15.7</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>16.2</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>15.5</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>17.399999999999999</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <v>16.525244796823369</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="30">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1437,8 +1473,11 @@
       <c r="S12" s="31">
         <v>19.119250309028729</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="31">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1496,67 +1535,73 @@
       <c r="S13" s="31">
         <v>13.749215987119079</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="9" t="s">
+      <c r="T13" s="31">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="50" customFormat="1">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>28.9</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>28</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>24.9</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>22.3</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>24.81</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>24</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>19.47</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>16.899999999999999</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>18.8</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>17.8</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="33">
         <v>15.2</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="33">
         <v>14.3</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="30">
         <v>18.3</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <v>14.3</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="30">
         <v>26.64</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <v>14.263200620072119</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="30">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1614,8 +1659,11 @@
       <c r="S15" s="31">
         <v>16.214093517712168</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="31">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1673,67 +1721,73 @@
       <c r="S16" s="31">
         <v>12.189607205170377</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="9" t="s">
+      <c r="T16" s="31">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="50" customFormat="1">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>33.9</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>30.1</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>28</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>25</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>20.059999999999999</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>21.7</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>20.2</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>22.6</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>16.8</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>17.899999999999999</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="33">
         <v>18.2</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="33">
         <v>15.1</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="30">
         <v>12.5</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <v>14.2</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="30">
         <v>13.87</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <v>14.097780631317802</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="30">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1791,8 +1845,11 @@
       <c r="S18" s="31">
         <v>16.597474200848456</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="31">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1850,67 +1907,73 @@
       <c r="S19" s="31">
         <v>11.56800988291025</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="9" t="s">
+      <c r="T19" s="31">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="50" customFormat="1">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>34.700000000000003</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>29.9</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>26.1</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>24.1</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>21.14</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>19</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>17.170000000000002</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>15</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>14.3</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>12.2</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="33">
         <v>11.7</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="33">
         <v>11</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="30">
         <v>10.6</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="30">
         <v>10</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="30">
         <v>11.98</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="30">
         <v>11.191263248519153</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="30">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1968,8 +2031,11 @@
       <c r="S21" s="31">
         <v>11.361761672735106</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="31">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -2027,67 +2093,73 @@
       <c r="S22" s="31">
         <v>11.015850216858553</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="9" t="s">
+      <c r="T22" s="31">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="50" customFormat="1">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>43.8</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>38.299999999999997</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>39</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>29.5</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>27.69</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>22.9</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>26.52</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>24.1</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <v>17.8</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>19.7</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="33">
         <v>17.100000000000001</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="33">
         <v>22.8</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="30">
         <v>20.6</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="30">
         <v>25.1</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="30">
         <v>24.53</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="30">
         <v>15.623145704601036</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="30">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2145,8 +2217,11 @@
       <c r="S24" s="31">
         <v>18.344423887154832</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="31">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -2204,67 +2279,73 @@
       <c r="S25" s="31">
         <v>12.847349120106124</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="9" t="s">
+      <c r="T25" s="31">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="50" customFormat="1">
+      <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>31.6</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>27.4</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>25.1</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>24.2</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>22.6</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>20.8</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>21.22</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>18.600000000000001</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>17.100000000000001</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>16.5</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="33">
         <v>12.9</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="33">
         <v>12.7</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="30">
         <v>13.1</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="30">
         <v>11.8</v>
       </c>
-      <c r="R26" s="31">
+      <c r="R26" s="30">
         <v>13.54</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="30">
         <v>13.798472231512836</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="30">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2322,8 +2403,11 @@
       <c r="S27" s="31">
         <v>15.128863237337196</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="31">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2381,67 +2465,73 @@
       <c r="S28" s="31">
         <v>12.394222749619622</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="11" t="s">
+      <c r="T28" s="31">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="50" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>36.299999999999997</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>34.6</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>32.299999999999997</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>28.2</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>26.24</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <v>24.8</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>25.69</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>28.6</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <v>26.6</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="25">
         <v>25.7</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="33">
         <v>26.4</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="33">
         <v>25</v>
       </c>
-      <c r="P29" s="31">
+      <c r="P29" s="30">
         <v>21.7</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="30">
         <v>20.9</v>
       </c>
-      <c r="R29" s="31">
+      <c r="R29" s="30">
         <v>17.84</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="30">
         <v>21.380402934584232</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2499,8 +2589,11 @@
       <c r="S30" s="31">
         <v>19.968977602899539</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="31">
+        <v>48.878999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2558,67 +2651,73 @@
       <c r="S31" s="31">
         <v>22.891947678227961</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="11" t="s">
+      <c r="T31" s="31">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="50" customFormat="1">
+      <c r="A32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>63.7</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>52.9</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>64.400000000000006</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>52.9</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>58.25</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>63.4</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>65.59</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>72.400000000000006</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>70.3</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>60</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="33">
         <v>53.1</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="33">
         <v>39</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="30">
         <v>37.200000000000003</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="30">
         <v>36.9</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="30">
         <v>30.69</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="30">
         <v>28.912046224512313</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2676,8 +2775,11 @@
       <c r="S33" s="31">
         <v>31.246721692820181</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1">
+      <c r="T33" s="31">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2729,11 +2831,14 @@
       <c r="Q34" s="32">
         <v>34.200000000000003</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="45">
         <v>25.64</v>
       </c>
-      <c r="S34" s="47">
+      <c r="S34" s="45">
         <v>26.427454495987305</v>
+      </c>
+      <c r="T34" s="45">
+        <v>55.55</v>
       </c>
     </row>
   </sheetData>
